--- a/ProfileAudit.xlsx
+++ b/ProfileAudit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahgomez/Desktop/BMCA/1 - Profile Audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77276348-517E-D347-8978-79637E527A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB030DF-6CBD-0941-8E8B-D0BA0D874CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="23240" windowHeight="16000" activeTab="1" xr2:uid="{3EC437AB-451D-9F42-98CF-9D1A9A0D0135}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="23240" windowHeight="16000" activeTab="1" xr2:uid="{3EC437AB-451D-9F42-98CF-9D1A9A0D0135}"/>
   </bookViews>
   <sheets>
     <sheet name="Action_Types" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="105">
   <si>
     <t>Close</t>
   </si>
@@ -854,7 +854,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A2E838-A468-FD4C-B3C0-9F4D07DEAC14}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1898,7 +1903,7 @@
       </c>
       <c r="Z11">
         <f>COUNTIFS(Credit_Factors!$B$2:$B$63,Credit_Factors!$B$51,Credit_Factors!$N$2:$N$63,Action_Types!G11)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA11" s="14">
         <f>COUNTIFS(Credit_Factors!$B$2:$B$63,Credit_Factors!$B$54,Credit_Factors!$M$2:$M$63,Action_Types!G11,Credit_Factors!$Y$2:$Y$63,Action_Types!E11)</f>
@@ -1992,7 +1997,7 @@
       </c>
       <c r="Z12">
         <f>COUNTIFS(Credit_Factors!$B$2:$B$63,Credit_Factors!$B$51,Credit_Factors!$N$2:$N$63,Action_Types!G12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA12" s="14">
         <f>COUNTIFS(Credit_Factors!$B$2:$B$63,Credit_Factors!$B$54,Credit_Factors!$M$2:$M$63,Action_Types!G12,Credit_Factors!$Y$2:$Y$63,Action_Types!E12)</f>
@@ -2229,10 +2234,10 @@
   <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9745,6 +9750,9 @@
       <c r="M51" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="N51" t="s">
+        <v>7</v>
+      </c>
       <c r="O51" t="s">
         <v>0</v>
       </c>
@@ -9757,7 +9765,7 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> All All All</v>
+        <v>Open All All All</v>
       </c>
       <c r="S51" t="str">
         <f t="shared" si="9"/>
@@ -9773,7 +9781,7 @@
       </c>
       <c r="V51" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve"> All All</v>
+        <v>Open All All</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="4"/>
@@ -9823,7 +9831,7 @@
   ),
   ""
 )</f>
-        <v/>
+        <v>Open</v>
       </c>
       <c r="AB51" t="str">
         <f>IFERROR(
